--- a/OnBoard/output/trust/bio/Bio_Trust_35.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_35.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q129"/>
+  <dimension ref="A1:Q163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,12 +462,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F2">
@@ -477,19 +477,14 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L2">
@@ -499,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,12 +509,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F3">
@@ -529,19 +524,14 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L3">
@@ -551,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,12 +556,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F4">
@@ -581,19 +571,14 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L4">
@@ -603,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,12 +603,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F5">
@@ -633,19 +618,14 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L5">
@@ -655,7 +635,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -670,12 +650,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F6">
@@ -685,19 +665,14 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L6">
@@ -707,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -722,12 +697,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F7">
@@ -737,19 +712,14 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L7">
@@ -759,7 +729,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -774,12 +744,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F8">
@@ -789,14 +759,14 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L8">
@@ -806,7 +776,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -821,12 +791,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F9">
@@ -836,19 +806,14 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L9">
@@ -858,7 +823,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -873,12 +838,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F10">
@@ -888,29 +853,24 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L10">
         <v>0</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>NA l inferred</t>
-        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -925,12 +885,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F11">
@@ -940,19 +900,14 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L11">
@@ -962,7 +917,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -977,12 +932,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F12">
@@ -992,19 +947,14 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L12">
@@ -1014,7 +964,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1029,12 +979,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F13">
@@ -1044,19 +994,14 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L13">
@@ -1066,7 +1011,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1081,12 +1026,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F14">
@@ -1096,19 +1041,14 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L14">
@@ -1118,7 +1058,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1133,12 +1073,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F15">
@@ -1148,19 +1088,14 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I15">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L15">
@@ -1170,7 +1105,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1185,12 +1120,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F16">
@@ -1200,19 +1135,14 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="I16">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L16">
@@ -1222,7 +1152,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1237,12 +1167,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F17">
@@ -1252,19 +1182,14 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L17">
@@ -1274,7 +1199,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1289,12 +1214,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F18">
@@ -1304,19 +1229,14 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L18">
@@ -1326,7 +1246,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1341,12 +1261,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F19">
@@ -1356,19 +1276,14 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L19">
@@ -1378,7 +1293,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1393,12 +1308,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F20">
@@ -1408,14 +1323,14 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L20">
@@ -1425,7 +1340,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1440,12 +1355,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F21">
@@ -1455,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1467,7 +1382,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L21">
@@ -1477,7 +1392,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1492,12 +1407,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F22">
@@ -1507,10 +1422,10 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1519,7 +1434,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L22">
@@ -1529,7 +1444,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1544,12 +1459,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F23">
@@ -1559,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1571,7 +1486,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L23">
@@ -1581,7 +1496,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1596,12 +1511,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F24">
@@ -1611,14 +1526,19 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L24">
@@ -1628,7 +1548,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1643,12 +1563,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F25">
@@ -1658,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="I25">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1670,7 +1590,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L25">
@@ -1680,7 +1600,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1695,12 +1615,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F26">
@@ -1710,14 +1630,19 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L26">
@@ -1727,7 +1652,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1742,12 +1667,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F27">
@@ -1757,10 +1682,10 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1769,22 +1694,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L27">
         <v>0</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1799,12 +1719,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F28">
@@ -1814,14 +1734,19 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>130</v>
+        <v>351</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>330</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>MEDFI-3</t>
         </is>
       </c>
       <c r="L28">
@@ -1831,7 +1756,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1846,12 +1771,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F29">
@@ -1861,14 +1786,19 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L29">
@@ -1878,7 +1808,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1893,12 +1823,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F30">
@@ -1908,14 +1838,19 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>58</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L30">
@@ -1925,7 +1860,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1940,12 +1875,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F31">
@@ -1955,14 +1890,19 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L31">
@@ -1972,7 +1912,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1987,12 +1927,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F32">
@@ -2002,14 +1942,19 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>80</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L32">
@@ -2019,7 +1964,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2034,12 +1979,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SCYOCAN</t>
         </is>
       </c>
       <c r="F33">
@@ -2049,14 +1994,14 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>157</v>
+        <v>371</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>191</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L33">
@@ -2066,7 +2011,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2081,7 +2026,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2096,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="I34">
         <v>-1</v>
@@ -2113,7 +2058,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2128,7 +2073,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2143,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -2160,7 +2105,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2175,7 +2120,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2190,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="I36">
         <v>-1</v>
@@ -2207,7 +2152,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2222,7 +2167,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2237,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="I37">
         <v>-1</v>
@@ -2254,7 +2199,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2269,12 +2214,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F38">
@@ -2284,19 +2229,19 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>120</v>
+        <v>367</v>
       </c>
       <c r="I38">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L38">
@@ -2306,7 +2251,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2321,12 +2266,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F39">
@@ -2336,19 +2281,19 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>125</v>
+        <v>462</v>
       </c>
       <c r="I39">
-        <v>277</v>
+        <v>548</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>SOSEF-2</t>
+          <t>MEDSE-3</t>
         </is>
       </c>
       <c r="L39">
@@ -2358,7 +2303,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2373,12 +2318,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F40">
@@ -2388,14 +2333,19 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>119</v>
+        <v>459</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>522</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>MEDSE-3</t>
         </is>
       </c>
       <c r="L40">
@@ -2405,7 +2355,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2425,7 +2375,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F41">
@@ -2435,19 +2385,14 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="I41">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L41">
@@ -2457,7 +2402,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2477,7 +2422,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F42">
@@ -2487,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="I42">
         <v>-1</v>
@@ -2504,7 +2449,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2524,7 +2469,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F43">
@@ -2534,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="I43">
         <v>-1</v>
@@ -2551,7 +2496,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2571,7 +2516,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F44">
@@ -2581,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="I44">
         <v>-1</v>
@@ -2598,7 +2543,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2618,7 +2563,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F45">
@@ -2628,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="I45">
         <v>-1</v>
@@ -2645,7 +2590,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2665,7 +2610,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F46">
@@ -2675,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="I46">
         <v>-1</v>
@@ -2692,7 +2637,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2712,7 +2657,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F47">
@@ -2722,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="I47">
         <v>-1</v>
@@ -2739,7 +2684,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2759,7 +2704,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F48">
@@ -2769,19 +2714,14 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="I48">
-        <v>120</v>
+        <v>-1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L48">
@@ -2791,7 +2731,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2811,7 +2751,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F49">
@@ -2821,19 +2761,14 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="I49">
-        <v>84</v>
+        <v>-1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L49">
@@ -2843,7 +2778,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2863,7 +2798,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F50">
@@ -2873,19 +2808,14 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="I50">
-        <v>51</v>
+        <v>-1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L50">
@@ -2895,7 +2825,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2915,7 +2845,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F51">
@@ -2925,19 +2855,14 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="I51">
-        <v>59</v>
+        <v>-1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L51">
@@ -2947,7 +2872,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2967,7 +2892,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F52">
@@ -2977,19 +2902,14 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="I52">
-        <v>66</v>
+        <v>-1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L52">
@@ -2999,7 +2919,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3019,7 +2939,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F53">
@@ -3029,19 +2949,14 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="I53">
-        <v>89</v>
+        <v>-1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L53">
@@ -3051,7 +2966,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3071,7 +2986,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F54">
@@ -3081,19 +2996,14 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="I54">
-        <v>183</v>
+        <v>-1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L54">
@@ -3103,7 +3013,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3133,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>375</v>
+        <v>179</v>
       </c>
       <c r="I55">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3145,7 +3055,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>MEDFI-3</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L55">
@@ -3155,7 +3065,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3170,12 +3080,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F56">
@@ -3185,10 +3095,10 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="I56">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3197,7 +3107,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L56">
@@ -3207,7 +3117,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3222,12 +3132,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F57">
@@ -3237,19 +3147,19 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="I57">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>SOSEM-2</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L57">
@@ -3259,7 +3169,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3274,12 +3184,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F58">
@@ -3289,19 +3199,19 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="I58">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L58">
@@ -3311,7 +3221,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3326,12 +3236,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F59">
@@ -3341,19 +3251,19 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="I59">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L59">
@@ -3363,7 +3273,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3378,12 +3288,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F60">
@@ -3393,14 +3303,19 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>130</v>
+        <v>435</v>
       </c>
       <c r="I60">
-        <v>-1</v>
+        <v>542</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>MEDSE-3</t>
         </is>
       </c>
       <c r="L60">
@@ -3410,7 +3325,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3430,7 +3345,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F61">
@@ -3440,14 +3355,14 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="I61">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L61">
@@ -3457,7 +3372,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3477,7 +3392,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F62">
@@ -3487,14 +3402,14 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="I62">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L62">
@@ -3504,7 +3419,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3524,7 +3439,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F63">
@@ -3534,14 +3449,14 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="I63">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L63">
@@ -3551,7 +3466,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3571,7 +3486,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F64">
@@ -3581,14 +3496,19 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="I64">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L64">
@@ -3598,7 +3518,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3618,7 +3538,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F65">
@@ -3628,14 +3548,19 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="I65">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L65">
@@ -3645,7 +3570,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3665,7 +3590,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F66">
@@ -3675,14 +3600,19 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I66">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L66">
@@ -3692,7 +3622,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3712,7 +3642,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F67">
@@ -3722,14 +3652,19 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="I67">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L67">
@@ -3739,7 +3674,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3759,7 +3694,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F68">
@@ -3769,14 +3704,19 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>294</v>
+        <v>23</v>
       </c>
       <c r="I68">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L68">
@@ -3786,7 +3726,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3806,7 +3746,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F69">
@@ -3816,14 +3756,19 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="I69">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L69">
@@ -3833,7 +3778,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3853,7 +3798,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F70">
@@ -3863,14 +3808,19 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="I70">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L70">
@@ -3880,7 +3830,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3900,7 +3850,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F71">
@@ -3910,14 +3860,19 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="I71">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L71">
@@ -3927,7 +3882,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3947,7 +3902,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F72">
@@ -3957,14 +3912,19 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="I72">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L72">
@@ -3974,7 +3934,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3994,7 +3954,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F73">
@@ -4004,14 +3964,19 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="I73">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L73">
@@ -4021,7 +3986,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4041,7 +4006,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F74">
@@ -4051,14 +4016,19 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="I74">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L74">
@@ -4068,7 +4038,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4088,7 +4058,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F75">
@@ -4098,14 +4068,19 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="I75">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L75">
@@ -4115,7 +4090,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4135,7 +4110,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F76">
@@ -4145,14 +4120,19 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="I76">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L76">
@@ -4162,7 +4142,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4182,7 +4162,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F77">
@@ -4192,14 +4172,19 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="I77">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L77">
@@ -4209,7 +4194,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4229,7 +4214,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F78">
@@ -4239,14 +4224,19 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="I78">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L78">
@@ -4256,7 +4246,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4276,7 +4266,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F79">
@@ -4286,14 +4276,19 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="I79">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L79">
@@ -4303,7 +4298,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4323,7 +4318,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F80">
@@ -4333,14 +4328,19 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="I80">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L80">
@@ -4350,7 +4350,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F81">
@@ -4380,14 +4380,19 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="I81">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L81">
@@ -4397,7 +4402,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4417,7 +4422,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F82">
@@ -4427,14 +4432,19 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="I82">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L82">
@@ -4444,7 +4454,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4464,7 +4474,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>LOLIVUL</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F83">
@@ -4474,14 +4484,19 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="I83">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L83">
@@ -4491,7 +4506,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4521,10 +4536,10 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I84">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -4533,7 +4548,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L84">
@@ -4543,7 +4558,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4573,10 +4588,10 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I85">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4595,7 +4610,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4637,7 +4652,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L86">
@@ -4647,7 +4662,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4677,10 +4692,10 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4689,7 +4704,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L87">
@@ -4699,7 +4714,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4729,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I88">
         <v>7</v>
@@ -4751,7 +4766,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4781,10 +4796,10 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I89">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4803,7 +4818,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4823,7 +4838,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F90">
@@ -4833,10 +4848,10 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4845,17 +4860,22 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L90">
         <v>0</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4875,7 +4895,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F91">
@@ -4885,10 +4905,10 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I91">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4897,17 +4917,22 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L91">
         <v>0</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4922,7 +4947,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4937,29 +4962,24 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I92">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L92">
         <v>0</v>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4974,7 +4994,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4989,29 +5009,24 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L93">
         <v>0</v>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5026,7 +5041,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5041,19 +5056,14 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L94">
@@ -5063,7 +5073,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5078,12 +5088,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F95">
@@ -5093,19 +5103,14 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I95">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L95">
@@ -5115,7 +5120,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5130,12 +5135,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F96">
@@ -5145,19 +5150,14 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I96">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L96">
@@ -5167,7 +5167,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5182,12 +5182,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F97">
@@ -5200,11 +5200,16 @@
         <v>24</v>
       </c>
       <c r="I97">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L97">
@@ -5214,7 +5219,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5229,12 +5234,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F98">
@@ -5244,10 +5249,10 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I98">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -5256,7 +5261,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>FROSQ-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L98">
@@ -5266,7 +5271,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5281,12 +5286,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>LEPMWHS</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F99">
@@ -5296,14 +5301,19 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="I99">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L99">
@@ -5313,7 +5323,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5328,12 +5338,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SCORELO</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F100">
@@ -5343,14 +5353,19 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="I100">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L100">
@@ -5360,7 +5375,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5375,12 +5390,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F101">
@@ -5390,10 +5405,10 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="I101">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -5402,7 +5417,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L101">
@@ -5412,7 +5427,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5427,12 +5442,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F102">
@@ -5442,10 +5457,10 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="I102">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -5454,7 +5469,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L102">
@@ -5464,7 +5479,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5479,12 +5494,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F103">
@@ -5494,19 +5509,19 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="I103">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>MEDFI-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L103">
@@ -5516,7 +5531,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5531,12 +5546,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F104">
@@ -5546,10 +5561,10 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="I104">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -5558,7 +5573,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L104">
@@ -5568,7 +5583,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5583,12 +5598,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F105">
@@ -5598,10 +5613,10 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="I105">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -5610,7 +5625,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L105">
@@ -5620,7 +5635,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5635,12 +5650,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F106">
@@ -5650,19 +5665,19 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="I106">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L106">
@@ -5672,7 +5687,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5687,12 +5702,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F107">
@@ -5702,10 +5717,10 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="I107">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -5714,7 +5729,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>MEDFI-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L107">
@@ -5724,7 +5739,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5739,12 +5754,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F108">
@@ -5754,10 +5769,10 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>495</v>
+        <v>24</v>
       </c>
       <c r="I108">
-        <v>778</v>
+        <v>7</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -5766,7 +5781,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>MEDSE-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L108">
@@ -5776,7 +5791,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5796,7 +5811,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F109">
@@ -5806,14 +5821,19 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I109">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L109">
@@ -5823,7 +5843,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5843,7 +5863,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F110">
@@ -5853,14 +5873,19 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I110">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L110">
@@ -5870,7 +5895,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5890,7 +5915,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F111">
@@ -5900,24 +5925,34 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I111">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L111">
         <v>0</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5937,7 +5972,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F112">
@@ -5947,14 +5982,19 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I112">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L112">
@@ -5964,7 +6004,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5984,7 +6024,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F113">
@@ -5994,14 +6034,19 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I113">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L113">
@@ -6011,7 +6056,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6031,7 +6076,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F114">
@@ -6041,14 +6086,19 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I114">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L114">
@@ -6058,7 +6108,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6078,7 +6128,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F115">
@@ -6088,14 +6138,19 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I115">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L115">
@@ -6105,7 +6160,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6125,7 +6180,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F116">
@@ -6135,14 +6190,19 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I116">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L116">
@@ -6152,7 +6212,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6172,7 +6232,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F117">
@@ -6182,14 +6242,19 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I117">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L117">
@@ -6199,7 +6264,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6219,7 +6284,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F118">
@@ -6229,14 +6294,19 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I118">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L118">
@@ -6246,7 +6316,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6266,7 +6336,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F119">
@@ -6276,14 +6346,19 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I119">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L119">
@@ -6293,7 +6368,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6313,7 +6388,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F120">
@@ -6323,14 +6398,19 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I120">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L120">
@@ -6340,7 +6420,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6360,7 +6440,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F121">
@@ -6370,14 +6450,19 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I121">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L121">
@@ -6387,7 +6472,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6407,7 +6492,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F122">
@@ -6417,14 +6502,19 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I122">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L122">
@@ -6434,7 +6524,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6454,7 +6544,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F123">
@@ -6464,14 +6554,19 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I123">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L123">
@@ -6481,7 +6576,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6501,7 +6596,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F124">
@@ -6511,14 +6606,19 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I124">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L124">
@@ -6528,7 +6628,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6548,7 +6648,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F125">
@@ -6558,14 +6658,19 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I125">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L125">
@@ -6575,7 +6680,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6595,7 +6700,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F126">
@@ -6605,14 +6710,19 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I126">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L126">
@@ -6622,7 +6732,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6642,7 +6752,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F127">
@@ -6652,14 +6762,14 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I127">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L127">
@@ -6669,7 +6779,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6684,12 +6794,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F128">
@@ -6699,14 +6809,19 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="I128">
-        <v>-1</v>
+        <v>85</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L128">
@@ -6716,7 +6831,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6731,32 +6846,1745 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>112</v>
+      </c>
+      <c r="I129">
+        <v>137</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
+        </is>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>90</v>
+      </c>
+      <c r="I130">
+        <v>94</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
+        </is>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>85</v>
+      </c>
+      <c r="I131">
+        <v>73</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
+        </is>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>110</v>
+      </c>
+      <c r="I132">
+        <v>180</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
+        </is>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>120</v>
+      </c>
+      <c r="I133">
+        <v>195</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
+        </is>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>87</v>
+      </c>
+      <c r="I134">
+        <v>85</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
+        </is>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>102</v>
+      </c>
+      <c r="I135">
+        <v>124</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
+        </is>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>2-RAP</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>100</v>
+      </c>
+      <c r="I136">
+        <v>101</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
+        </is>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>89</v>
+      </c>
+      <c r="I137">
+        <v>86</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
+        </is>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>130</v>
+      </c>
+      <c r="I138">
+        <v>284</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
+        </is>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>96</v>
+      </c>
+      <c r="I139">
+        <v>89</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
+        </is>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>132</v>
+      </c>
+      <c r="I140">
+        <v>210</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
+        </is>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>112</v>
+      </c>
+      <c r="I141">
+        <v>161</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
+        </is>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>ILLECOI</t>
+        </is>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>89</v>
+      </c>
+      <c r="I142">
+        <v>-1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>23</v>
+      </c>
+      <c r="I143">
+        <v>6</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>22</v>
+      </c>
+      <c r="I144">
+        <v>4</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>20</v>
+      </c>
+      <c r="I145">
+        <v>6</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>LEPTCAV</t>
+        </is>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>87</v>
+      </c>
+      <c r="I146">
+        <v>-1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
         <is>
           <t>LIOCDEP</t>
         </is>
       </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129">
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>27</v>
+      </c>
+      <c r="I147">
+        <v>13</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>22</v>
+      </c>
+      <c r="I148">
+        <v>8</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>22</v>
+      </c>
+      <c r="I149">
+        <v>6</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>26</v>
+      </c>
+      <c r="I150">
+        <v>13</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>19</v>
+      </c>
+      <c r="I151">
+        <v>3</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>25</v>
+      </c>
+      <c r="I152">
+        <v>9</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>22</v>
+      </c>
+      <c r="I153">
+        <v>7</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>28</v>
+      </c>
+      <c r="I154">
+        <v>11</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
         <v>23</v>
       </c>
-      <c r="I129">
-        <v>-1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L129">
+      <c r="I155">
+        <v>7</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>23</v>
+      </c>
+      <c r="I156">
+        <v>9</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>24</v>
+      </c>
+      <c r="I157">
+        <v>8</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>27</v>
+      </c>
+      <c r="I158">
+        <v>12</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>24</v>
+      </c>
+      <c r="I159">
+        <v>9</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>31</v>
+      </c>
+      <c r="I160">
+        <v>18</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>23</v>
+      </c>
+      <c r="I161">
+        <v>8</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>26</v>
+      </c>
+      <c r="I162">
+        <v>10</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>20</v>
+      </c>
+      <c r="I163">
+        <v>4</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L163">
         <v>0</v>
       </c>
     </row>

--- a/OnBoard/output/trust/bio/Bio_Trust_35.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_35.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q163"/>
+  <dimension ref="A1:Q164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7584,18 +7584,28 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L143">
         <v>0</v>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -7631,10 +7641,10 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -7678,19 +7688,14 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I145">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L145">
@@ -7720,7 +7725,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F146">
@@ -7730,14 +7735,19 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I146">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L146">
@@ -7767,7 +7777,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F147">
@@ -7777,14 +7787,14 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I147">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L147">
@@ -7824,19 +7834,14 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I148">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L148">
@@ -7879,7 +7884,7 @@
         <v>22</v>
       </c>
       <c r="I149">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -7888,7 +7893,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L149">
@@ -7928,10 +7933,10 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I150">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -7940,7 +7945,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L150">
@@ -7980,14 +7985,19 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L151">
@@ -8027,19 +8037,14 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I152">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L152">
@@ -8079,14 +8084,19 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I153">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L153">
@@ -8126,19 +8136,14 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I154">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L154">
@@ -8178,10 +8183,10 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I155">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -8233,11 +8238,16 @@
         <v>23</v>
       </c>
       <c r="I156">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L156">
@@ -8277,19 +8287,14 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I157">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L157">
@@ -8329,14 +8334,19 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I158">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L158">
@@ -8376,10 +8386,10 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I159">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -8423,19 +8433,14 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I160">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L160">
@@ -8475,10 +8480,10 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I161">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -8527,14 +8532,19 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I162">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L162">
@@ -8574,17 +8584,64 @@
         <v>1</v>
       </c>
       <c r="H163">
+        <v>26</v>
+      </c>
+      <c r="I163">
+        <v>10</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
         <v>20</v>
       </c>
-      <c r="I163">
+      <c r="I164">
         <v>4</v>
       </c>
-      <c r="J163" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L163">
+      <c r="L164">
         <v>0</v>
       </c>
     </row>
